--- a/Symphony/2021/OCTOBER/All Details/18.10.2021/MC Bank Statement October-2021.xlsx
+++ b/Symphony/2021/OCTOBER/All Details/18.10.2021/MC Bank Statement October-2021.xlsx
@@ -980,9 +980,6 @@
     <t>17.10.2021</t>
   </si>
   <si>
-    <t>Safiul(1280 Safiul Pabe)</t>
-  </si>
-  <si>
     <t>17.10.221</t>
   </si>
   <si>
@@ -1002,6 +999,9 @@
   </si>
   <si>
     <t>N=Sohag Telecom</t>
+  </si>
+  <si>
+    <t>Safiul</t>
   </si>
 </sst>
 </file>
@@ -2342,7 +2342,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="373">
+  <cellXfs count="372">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3256,9 +3256,6 @@
     <xf numFmtId="1" fontId="39" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="39" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4090,33 +4087,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="327"/>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
+      <c r="A1" s="326"/>
+      <c r="B1" s="326"/>
+      <c r="C1" s="326"/>
+      <c r="D1" s="326"/>
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="328"/>
-      <c r="B2" s="325" t="s">
+      <c r="A2" s="327"/>
+      <c r="B2" s="324" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="325"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="328"/>
-      <c r="B3" s="326" t="s">
+      <c r="A3" s="327"/>
+      <c r="B3" s="325" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
+      <c r="C3" s="325"/>
+      <c r="D3" s="325"/>
+      <c r="E3" s="325"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="328"/>
+      <c r="A4" s="327"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -4134,7 +4131,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="328"/>
+      <c r="A5" s="327"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
@@ -4152,7 +4149,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="328"/>
+      <c r="A6" s="327"/>
       <c r="B6" s="28"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -4164,7 +4161,7 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="328"/>
+      <c r="A7" s="327"/>
       <c r="B7" s="28" t="s">
         <v>70</v>
       </c>
@@ -4183,7 +4180,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="328"/>
+      <c r="A8" s="327"/>
       <c r="B8" s="28" t="s">
         <v>71</v>
       </c>
@@ -4202,7 +4199,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="328"/>
+      <c r="A9" s="327"/>
       <c r="B9" s="28" t="s">
         <v>73</v>
       </c>
@@ -4221,7 +4218,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="328"/>
+      <c r="A10" s="327"/>
       <c r="B10" s="28" t="s">
         <v>74</v>
       </c>
@@ -4240,7 +4237,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="328"/>
+      <c r="A11" s="327"/>
       <c r="B11" s="28" t="s">
         <v>75</v>
       </c>
@@ -4259,7 +4256,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="328"/>
+      <c r="A12" s="327"/>
       <c r="B12" s="28" t="s">
         <v>76</v>
       </c>
@@ -4278,7 +4275,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="328"/>
+      <c r="A13" s="327"/>
       <c r="B13" s="28" t="s">
         <v>77</v>
       </c>
@@ -4297,7 +4294,7 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="328"/>
+      <c r="A14" s="327"/>
       <c r="B14" s="28" t="s">
         <v>78</v>
       </c>
@@ -4316,7 +4313,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="328"/>
+      <c r="A15" s="327"/>
       <c r="B15" s="28" t="s">
         <v>79</v>
       </c>
@@ -4335,7 +4332,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="328"/>
+      <c r="A16" s="327"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -4348,7 +4345,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="328"/>
+      <c r="A17" s="327"/>
       <c r="B17" s="28"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -4361,7 +4358,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="328"/>
+      <c r="A18" s="327"/>
       <c r="B18" s="28"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -4374,7 +4371,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="328"/>
+      <c r="A19" s="327"/>
       <c r="B19" s="28"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -4387,7 +4384,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="328"/>
+      <c r="A20" s="327"/>
       <c r="B20" s="28"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -4400,7 +4397,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="328"/>
+      <c r="A21" s="327"/>
       <c r="B21" s="28"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -4413,7 +4410,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="328"/>
+      <c r="A22" s="327"/>
       <c r="B22" s="28"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -4426,7 +4423,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="328"/>
+      <c r="A23" s="327"/>
       <c r="B23" s="28"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -4439,7 +4436,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="328"/>
+      <c r="A24" s="327"/>
       <c r="B24" s="28"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -4452,7 +4449,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="328"/>
+      <c r="A25" s="327"/>
       <c r="B25" s="28"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -4465,7 +4462,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="328"/>
+      <c r="A26" s="327"/>
       <c r="B26" s="28"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -4478,7 +4475,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="328"/>
+      <c r="A27" s="327"/>
       <c r="B27" s="28"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -4491,7 +4488,7 @@
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="328"/>
+      <c r="A28" s="327"/>
       <c r="B28" s="28"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -4504,7 +4501,7 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="328"/>
+      <c r="A29" s="327"/>
       <c r="B29" s="28"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
@@ -4517,7 +4514,7 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="328"/>
+      <c r="A30" s="327"/>
       <c r="B30" s="28"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -4530,7 +4527,7 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="328"/>
+      <c r="A31" s="327"/>
       <c r="B31" s="28"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -4543,7 +4540,7 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="328"/>
+      <c r="A32" s="327"/>
       <c r="B32" s="28"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -4556,7 +4553,7 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="328"/>
+      <c r="A33" s="327"/>
       <c r="B33" s="28"/>
       <c r="C33" s="27"/>
       <c r="D33" s="30"/>
@@ -4569,7 +4566,7 @@
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="328"/>
+      <c r="A34" s="327"/>
       <c r="B34" s="28"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -4582,7 +4579,7 @@
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="328"/>
+      <c r="A35" s="327"/>
       <c r="B35" s="28"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -4595,7 +4592,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="328"/>
+      <c r="A36" s="327"/>
       <c r="B36" s="28"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -4608,7 +4605,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="328"/>
+      <c r="A37" s="327"/>
       <c r="B37" s="28"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -4621,7 +4618,7 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="328"/>
+      <c r="A38" s="327"/>
       <c r="B38" s="28"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -4634,7 +4631,7 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="328"/>
+      <c r="A39" s="327"/>
       <c r="B39" s="28"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
@@ -4647,7 +4644,7 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="328"/>
+      <c r="A40" s="327"/>
       <c r="B40" s="28"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -4660,7 +4657,7 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="328"/>
+      <c r="A41" s="327"/>
       <c r="B41" s="28"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -4673,7 +4670,7 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="328"/>
+      <c r="A42" s="327"/>
       <c r="B42" s="28"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
@@ -4686,7 +4683,7 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="328"/>
+      <c r="A43" s="327"/>
       <c r="B43" s="28"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
@@ -4699,7 +4696,7 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="328"/>
+      <c r="A44" s="327"/>
       <c r="B44" s="28"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
@@ -4712,7 +4709,7 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="328"/>
+      <c r="A45" s="327"/>
       <c r="B45" s="28"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
@@ -4725,7 +4722,7 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="328"/>
+      <c r="A46" s="327"/>
       <c r="B46" s="28"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
@@ -4738,7 +4735,7 @@
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="328"/>
+      <c r="A47" s="327"/>
       <c r="B47" s="28"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -4751,7 +4748,7 @@
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="328"/>
+      <c r="A48" s="327"/>
       <c r="B48" s="28"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
@@ -4764,7 +4761,7 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="328"/>
+      <c r="A49" s="327"/>
       <c r="B49" s="28"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -4777,7 +4774,7 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="328"/>
+      <c r="A50" s="327"/>
       <c r="B50" s="28"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -4790,7 +4787,7 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="328"/>
+      <c r="A51" s="327"/>
       <c r="B51" s="28"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -4803,7 +4800,7 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="328"/>
+      <c r="A52" s="327"/>
       <c r="B52" s="28"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -4816,7 +4813,7 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="328"/>
+      <c r="A53" s="327"/>
       <c r="B53" s="28"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -4829,7 +4826,7 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="328"/>
+      <c r="A54" s="327"/>
       <c r="B54" s="28"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -4842,7 +4839,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="328"/>
+      <c r="A55" s="327"/>
       <c r="B55" s="28"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -4854,7 +4851,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="328"/>
+      <c r="A56" s="327"/>
       <c r="B56" s="28"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -4866,7 +4863,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="328"/>
+      <c r="A57" s="327"/>
       <c r="B57" s="28"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -4878,7 +4875,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="328"/>
+      <c r="A58" s="327"/>
       <c r="B58" s="28"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
@@ -4890,7 +4887,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="328"/>
+      <c r="A59" s="327"/>
       <c r="B59" s="28"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
@@ -4902,7 +4899,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="328"/>
+      <c r="A60" s="327"/>
       <c r="B60" s="28"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -4914,7 +4911,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="328"/>
+      <c r="A61" s="327"/>
       <c r="B61" s="28"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -4926,7 +4923,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="328"/>
+      <c r="A62" s="327"/>
       <c r="B62" s="28"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
@@ -4938,7 +4935,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="328"/>
+      <c r="A63" s="327"/>
       <c r="B63" s="28"/>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
@@ -4950,7 +4947,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="328"/>
+      <c r="A64" s="327"/>
       <c r="B64" s="28"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
@@ -4962,7 +4959,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="328"/>
+      <c r="A65" s="327"/>
       <c r="B65" s="28"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
@@ -4974,7 +4971,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="328"/>
+      <c r="A66" s="327"/>
       <c r="B66" s="28"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
@@ -4986,7 +4983,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="328"/>
+      <c r="A67" s="327"/>
       <c r="B67" s="28"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -4998,7 +4995,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="328"/>
+      <c r="A68" s="327"/>
       <c r="B68" s="28"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -5010,7 +5007,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="328"/>
+      <c r="A69" s="327"/>
       <c r="B69" s="28"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
@@ -5022,7 +5019,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="328"/>
+      <c r="A70" s="327"/>
       <c r="B70" s="28"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -5034,7 +5031,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="328"/>
+      <c r="A71" s="327"/>
       <c r="B71" s="28"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -5046,7 +5043,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="328"/>
+      <c r="A72" s="327"/>
       <c r="B72" s="28"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
@@ -5058,7 +5055,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="328"/>
+      <c r="A73" s="327"/>
       <c r="B73" s="28"/>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
@@ -5070,7 +5067,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="328"/>
+      <c r="A74" s="327"/>
       <c r="B74" s="28"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
@@ -5082,7 +5079,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="328"/>
+      <c r="A75" s="327"/>
       <c r="B75" s="28"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
@@ -5094,7 +5091,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="328"/>
+      <c r="A76" s="327"/>
       <c r="B76" s="28"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
@@ -5106,7 +5103,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="328"/>
+      <c r="A77" s="327"/>
       <c r="B77" s="28"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
@@ -5118,7 +5115,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="328"/>
+      <c r="A78" s="327"/>
       <c r="B78" s="28"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
@@ -5130,7 +5127,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="328"/>
+      <c r="A79" s="327"/>
       <c r="B79" s="28"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
@@ -5142,7 +5139,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="328"/>
+      <c r="A80" s="327"/>
       <c r="B80" s="28"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -5154,7 +5151,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="328"/>
+      <c r="A81" s="327"/>
       <c r="B81" s="28"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -5166,7 +5163,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="328"/>
+      <c r="A82" s="327"/>
       <c r="B82" s="28"/>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
@@ -5178,7 +5175,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="328"/>
+      <c r="A83" s="327"/>
       <c r="B83" s="33"/>
       <c r="C83" s="29">
         <f>SUM(C5:C72)</f>
@@ -5218,7 +5215,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5235,33 +5232,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="327"/>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
+      <c r="A1" s="326"/>
+      <c r="B1" s="326"/>
+      <c r="C1" s="326"/>
+      <c r="D1" s="326"/>
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="328"/>
-      <c r="B2" s="325" t="s">
+      <c r="A2" s="327"/>
+      <c r="B2" s="324" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="325"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="328"/>
-      <c r="B3" s="326" t="s">
+      <c r="A3" s="327"/>
+      <c r="B3" s="325" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
+      <c r="C3" s="325"/>
+      <c r="D3" s="325"/>
+      <c r="E3" s="325"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="328"/>
+      <c r="A4" s="327"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -5279,7 +5276,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="328"/>
+      <c r="A5" s="327"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
@@ -5297,7 +5294,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="328"/>
+      <c r="A6" s="327"/>
       <c r="B6" s="28"/>
       <c r="C6" s="302"/>
       <c r="D6" s="302"/>
@@ -5309,7 +5306,7 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="328"/>
+      <c r="A7" s="327"/>
       <c r="B7" s="28" t="s">
         <v>204</v>
       </c>
@@ -5328,7 +5325,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="328"/>
+      <c r="A8" s="327"/>
       <c r="B8" s="28" t="s">
         <v>207</v>
       </c>
@@ -5347,7 +5344,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="328"/>
+      <c r="A9" s="327"/>
       <c r="B9" s="28" t="s">
         <v>210</v>
       </c>
@@ -5366,7 +5363,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="328"/>
+      <c r="A10" s="327"/>
       <c r="B10" s="28" t="s">
         <v>211</v>
       </c>
@@ -5385,7 +5382,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="328"/>
+      <c r="A11" s="327"/>
       <c r="B11" s="28" t="s">
         <v>211</v>
       </c>
@@ -5406,7 +5403,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="328"/>
+      <c r="A12" s="327"/>
       <c r="B12" s="28" t="s">
         <v>214</v>
       </c>
@@ -5425,7 +5422,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="328"/>
+      <c r="A13" s="327"/>
       <c r="B13" s="28" t="s">
         <v>215</v>
       </c>
@@ -5444,7 +5441,7 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="328"/>
+      <c r="A14" s="327"/>
       <c r="B14" s="28" t="s">
         <v>218</v>
       </c>
@@ -5463,7 +5460,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="328"/>
+      <c r="A15" s="327"/>
       <c r="B15" s="28" t="s">
         <v>220</v>
       </c>
@@ -5482,7 +5479,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="328"/>
+      <c r="A16" s="327"/>
       <c r="B16" s="28" t="s">
         <v>221</v>
       </c>
@@ -5501,7 +5498,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="328"/>
+      <c r="A17" s="327"/>
       <c r="B17" s="28" t="s">
         <v>226</v>
       </c>
@@ -5520,7 +5517,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="328"/>
+      <c r="A18" s="327"/>
       <c r="B18" s="28" t="s">
         <v>229</v>
       </c>
@@ -5539,7 +5536,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="328"/>
+      <c r="A19" s="327"/>
       <c r="B19" s="28" t="s">
         <v>230</v>
       </c>
@@ -5558,7 +5555,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="328"/>
+      <c r="A20" s="327"/>
       <c r="B20" s="28" t="s">
         <v>231</v>
       </c>
@@ -5577,7 +5574,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="328"/>
+      <c r="A21" s="327"/>
       <c r="B21" s="28" t="s">
         <v>233</v>
       </c>
@@ -5596,9 +5593,9 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="328"/>
+      <c r="A22" s="327"/>
       <c r="B22" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C22" s="302">
         <v>400000</v>
@@ -5615,7 +5612,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="328"/>
+      <c r="A23" s="327"/>
       <c r="B23" s="28"/>
       <c r="C23" s="302"/>
       <c r="D23" s="302"/>
@@ -5628,7 +5625,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="328"/>
+      <c r="A24" s="327"/>
       <c r="B24" s="28"/>
       <c r="C24" s="302"/>
       <c r="D24" s="302"/>
@@ -5641,7 +5638,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="328"/>
+      <c r="A25" s="327"/>
       <c r="B25" s="28"/>
       <c r="C25" s="302"/>
       <c r="D25" s="302"/>
@@ -5654,7 +5651,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="328"/>
+      <c r="A26" s="327"/>
       <c r="B26" s="28"/>
       <c r="C26" s="302"/>
       <c r="D26" s="302"/>
@@ -5667,7 +5664,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="328"/>
+      <c r="A27" s="327"/>
       <c r="B27" s="28"/>
       <c r="C27" s="302"/>
       <c r="D27" s="302"/>
@@ -5680,7 +5677,7 @@
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="328"/>
+      <c r="A28" s="327"/>
       <c r="B28" s="28"/>
       <c r="C28" s="302"/>
       <c r="D28" s="302"/>
@@ -5693,7 +5690,7 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="328"/>
+      <c r="A29" s="327"/>
       <c r="B29" s="28"/>
       <c r="C29" s="302"/>
       <c r="D29" s="302"/>
@@ -5706,7 +5703,7 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="328"/>
+      <c r="A30" s="327"/>
       <c r="B30" s="28"/>
       <c r="C30" s="302"/>
       <c r="D30" s="302"/>
@@ -5719,7 +5716,7 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="328"/>
+      <c r="A31" s="327"/>
       <c r="B31" s="28"/>
       <c r="C31" s="302"/>
       <c r="D31" s="302"/>
@@ -5732,7 +5729,7 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="328"/>
+      <c r="A32" s="327"/>
       <c r="B32" s="28"/>
       <c r="C32" s="302"/>
       <c r="D32" s="302"/>
@@ -5745,7 +5742,7 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="328"/>
+      <c r="A33" s="327"/>
       <c r="B33" s="28"/>
       <c r="C33" s="302"/>
       <c r="D33" s="306"/>
@@ -5758,7 +5755,7 @@
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="328"/>
+      <c r="A34" s="327"/>
       <c r="B34" s="28"/>
       <c r="C34" s="302"/>
       <c r="D34" s="302"/>
@@ -5771,7 +5768,7 @@
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="328"/>
+      <c r="A35" s="327"/>
       <c r="B35" s="28"/>
       <c r="C35" s="302"/>
       <c r="D35" s="302"/>
@@ -5784,7 +5781,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="328"/>
+      <c r="A36" s="327"/>
       <c r="B36" s="28"/>
       <c r="C36" s="302"/>
       <c r="D36" s="302"/>
@@ -5797,7 +5794,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="328"/>
+      <c r="A37" s="327"/>
       <c r="B37" s="28"/>
       <c r="C37" s="302"/>
       <c r="D37" s="302"/>
@@ -5810,7 +5807,7 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="328"/>
+      <c r="A38" s="327"/>
       <c r="B38" s="28"/>
       <c r="C38" s="302"/>
       <c r="D38" s="302"/>
@@ -5823,7 +5820,7 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="328"/>
+      <c r="A39" s="327"/>
       <c r="B39" s="28"/>
       <c r="C39" s="302"/>
       <c r="D39" s="302"/>
@@ -5836,7 +5833,7 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="328"/>
+      <c r="A40" s="327"/>
       <c r="B40" s="28"/>
       <c r="C40" s="302"/>
       <c r="D40" s="302"/>
@@ -5849,7 +5846,7 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="328"/>
+      <c r="A41" s="327"/>
       <c r="B41" s="28"/>
       <c r="C41" s="302"/>
       <c r="D41" s="302"/>
@@ -5862,7 +5859,7 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="328"/>
+      <c r="A42" s="327"/>
       <c r="B42" s="28"/>
       <c r="C42" s="302"/>
       <c r="D42" s="302"/>
@@ -5875,7 +5872,7 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="328"/>
+      <c r="A43" s="327"/>
       <c r="B43" s="28"/>
       <c r="C43" s="302"/>
       <c r="D43" s="302"/>
@@ -5888,7 +5885,7 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="328"/>
+      <c r="A44" s="327"/>
       <c r="B44" s="28"/>
       <c r="C44" s="302"/>
       <c r="D44" s="302"/>
@@ -5901,7 +5898,7 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="328"/>
+      <c r="A45" s="327"/>
       <c r="B45" s="28"/>
       <c r="C45" s="302"/>
       <c r="D45" s="302"/>
@@ -5914,7 +5911,7 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="328"/>
+      <c r="A46" s="327"/>
       <c r="B46" s="28"/>
       <c r="C46" s="302"/>
       <c r="D46" s="302"/>
@@ -5927,7 +5924,7 @@
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="328"/>
+      <c r="A47" s="327"/>
       <c r="B47" s="28"/>
       <c r="C47" s="302"/>
       <c r="D47" s="302"/>
@@ -5940,7 +5937,7 @@
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="328"/>
+      <c r="A48" s="327"/>
       <c r="B48" s="28"/>
       <c r="C48" s="302"/>
       <c r="D48" s="302"/>
@@ -5953,7 +5950,7 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="328"/>
+      <c r="A49" s="327"/>
       <c r="B49" s="28"/>
       <c r="C49" s="302"/>
       <c r="D49" s="302"/>
@@ -5966,7 +5963,7 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="328"/>
+      <c r="A50" s="327"/>
       <c r="B50" s="28"/>
       <c r="C50" s="302"/>
       <c r="D50" s="302"/>
@@ -5979,7 +5976,7 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="328"/>
+      <c r="A51" s="327"/>
       <c r="B51" s="28"/>
       <c r="C51" s="302"/>
       <c r="D51" s="302"/>
@@ -5992,7 +5989,7 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="328"/>
+      <c r="A52" s="327"/>
       <c r="B52" s="28"/>
       <c r="C52" s="302"/>
       <c r="D52" s="302"/>
@@ -6005,7 +6002,7 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="328"/>
+      <c r="A53" s="327"/>
       <c r="B53" s="28"/>
       <c r="C53" s="302"/>
       <c r="D53" s="302"/>
@@ -6018,7 +6015,7 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="328"/>
+      <c r="A54" s="327"/>
       <c r="B54" s="28"/>
       <c r="C54" s="302"/>
       <c r="D54" s="302"/>
@@ -6031,7 +6028,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="328"/>
+      <c r="A55" s="327"/>
       <c r="B55" s="28"/>
       <c r="C55" s="302"/>
       <c r="D55" s="302"/>
@@ -6043,7 +6040,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="328"/>
+      <c r="A56" s="327"/>
       <c r="B56" s="28"/>
       <c r="C56" s="302"/>
       <c r="D56" s="302"/>
@@ -6055,7 +6052,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="328"/>
+      <c r="A57" s="327"/>
       <c r="B57" s="28"/>
       <c r="C57" s="302"/>
       <c r="D57" s="302"/>
@@ -6067,7 +6064,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="328"/>
+      <c r="A58" s="327"/>
       <c r="B58" s="28"/>
       <c r="C58" s="302"/>
       <c r="D58" s="302"/>
@@ -6079,7 +6076,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="328"/>
+      <c r="A59" s="327"/>
       <c r="B59" s="28"/>
       <c r="C59" s="302"/>
       <c r="D59" s="302"/>
@@ -6091,7 +6088,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="328"/>
+      <c r="A60" s="327"/>
       <c r="B60" s="28"/>
       <c r="C60" s="302"/>
       <c r="D60" s="302"/>
@@ -6103,7 +6100,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="328"/>
+      <c r="A61" s="327"/>
       <c r="B61" s="28"/>
       <c r="C61" s="302"/>
       <c r="D61" s="302"/>
@@ -6115,7 +6112,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="328"/>
+      <c r="A62" s="327"/>
       <c r="B62" s="28"/>
       <c r="C62" s="302"/>
       <c r="D62" s="302"/>
@@ -6127,7 +6124,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="328"/>
+      <c r="A63" s="327"/>
       <c r="B63" s="28"/>
       <c r="C63" s="302"/>
       <c r="D63" s="302"/>
@@ -6139,7 +6136,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="328"/>
+      <c r="A64" s="327"/>
       <c r="B64" s="28"/>
       <c r="C64" s="302"/>
       <c r="D64" s="302"/>
@@ -6151,7 +6148,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="328"/>
+      <c r="A65" s="327"/>
       <c r="B65" s="28"/>
       <c r="C65" s="302"/>
       <c r="D65" s="302"/>
@@ -6163,7 +6160,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="328"/>
+      <c r="A66" s="327"/>
       <c r="B66" s="28"/>
       <c r="C66" s="302"/>
       <c r="D66" s="302"/>
@@ -6175,7 +6172,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="328"/>
+      <c r="A67" s="327"/>
       <c r="B67" s="28"/>
       <c r="C67" s="302"/>
       <c r="D67" s="302"/>
@@ -6187,7 +6184,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="328"/>
+      <c r="A68" s="327"/>
       <c r="B68" s="28"/>
       <c r="C68" s="302"/>
       <c r="D68" s="302"/>
@@ -6199,7 +6196,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="328"/>
+      <c r="A69" s="327"/>
       <c r="B69" s="28"/>
       <c r="C69" s="302"/>
       <c r="D69" s="302"/>
@@ -6211,7 +6208,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="328"/>
+      <c r="A70" s="327"/>
       <c r="B70" s="28"/>
       <c r="C70" s="302"/>
       <c r="D70" s="302"/>
@@ -6223,7 +6220,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="328"/>
+      <c r="A71" s="327"/>
       <c r="B71" s="28"/>
       <c r="C71" s="302"/>
       <c r="D71" s="302"/>
@@ -6235,7 +6232,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="328"/>
+      <c r="A72" s="327"/>
       <c r="B72" s="28"/>
       <c r="C72" s="302"/>
       <c r="D72" s="302"/>
@@ -6247,7 +6244,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="328"/>
+      <c r="A73" s="327"/>
       <c r="B73" s="28"/>
       <c r="C73" s="302"/>
       <c r="D73" s="302"/>
@@ -6259,7 +6256,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="328"/>
+      <c r="A74" s="327"/>
       <c r="B74" s="28"/>
       <c r="C74" s="302"/>
       <c r="D74" s="302"/>
@@ -6271,7 +6268,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="328"/>
+      <c r="A75" s="327"/>
       <c r="B75" s="28"/>
       <c r="C75" s="302"/>
       <c r="D75" s="302"/>
@@ -6283,7 +6280,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="328"/>
+      <c r="A76" s="327"/>
       <c r="B76" s="28"/>
       <c r="C76" s="302"/>
       <c r="D76" s="302"/>
@@ -6295,7 +6292,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="328"/>
+      <c r="A77" s="327"/>
       <c r="B77" s="28"/>
       <c r="C77" s="302"/>
       <c r="D77" s="302"/>
@@ -6307,7 +6304,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="328"/>
+      <c r="A78" s="327"/>
       <c r="B78" s="28"/>
       <c r="C78" s="302"/>
       <c r="D78" s="302"/>
@@ -6319,7 +6316,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="328"/>
+      <c r="A79" s="327"/>
       <c r="B79" s="28"/>
       <c r="C79" s="302"/>
       <c r="D79" s="302"/>
@@ -6331,7 +6328,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="328"/>
+      <c r="A80" s="327"/>
       <c r="B80" s="28"/>
       <c r="C80" s="302"/>
       <c r="D80" s="302"/>
@@ -6343,7 +6340,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="328"/>
+      <c r="A81" s="327"/>
       <c r="B81" s="28"/>
       <c r="C81" s="302"/>
       <c r="D81" s="302"/>
@@ -6355,7 +6352,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="328"/>
+      <c r="A82" s="327"/>
       <c r="B82" s="28"/>
       <c r="C82" s="302"/>
       <c r="D82" s="302"/>
@@ -6367,7 +6364,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="328"/>
+      <c r="A83" s="327"/>
       <c r="B83" s="33"/>
       <c r="C83" s="304">
         <f>SUM(C5:C72)</f>
@@ -6419,67 +6416,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="333" t="s">
+      <c r="A1" s="332" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="333"/>
-      <c r="C1" s="333"/>
-      <c r="D1" s="333"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="333"/>
-      <c r="G1" s="333"/>
-      <c r="H1" s="333"/>
-      <c r="I1" s="333"/>
-      <c r="J1" s="333"/>
-      <c r="K1" s="333"/>
-      <c r="L1" s="333"/>
-      <c r="M1" s="333"/>
-      <c r="N1" s="333"/>
-      <c r="O1" s="333"/>
-      <c r="P1" s="333"/>
-      <c r="Q1" s="333"/>
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="332"/>
+      <c r="N1" s="332"/>
+      <c r="O1" s="332"/>
+      <c r="P1" s="332"/>
+      <c r="Q1" s="332"/>
     </row>
     <row r="2" spans="1:24" s="81" customFormat="1" ht="18">
-      <c r="A2" s="334" t="s">
+      <c r="A2" s="333" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="334"/>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="334"/>
-      <c r="G2" s="334"/>
-      <c r="H2" s="334"/>
-      <c r="I2" s="334"/>
-      <c r="J2" s="334"/>
-      <c r="K2" s="334"/>
-      <c r="L2" s="334"/>
-      <c r="M2" s="334"/>
-      <c r="N2" s="334"/>
-      <c r="O2" s="334"/>
-      <c r="P2" s="334"/>
-      <c r="Q2" s="334"/>
+      <c r="B2" s="333"/>
+      <c r="C2" s="333"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333"/>
+      <c r="F2" s="333"/>
+      <c r="G2" s="333"/>
+      <c r="H2" s="333"/>
+      <c r="I2" s="333"/>
+      <c r="J2" s="333"/>
+      <c r="K2" s="333"/>
+      <c r="L2" s="333"/>
+      <c r="M2" s="333"/>
+      <c r="N2" s="333"/>
+      <c r="O2" s="333"/>
+      <c r="P2" s="333"/>
+      <c r="Q2" s="333"/>
     </row>
     <row r="3" spans="1:24" s="82" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="335" t="s">
+      <c r="A3" s="334" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="336"/>
-      <c r="C3" s="336"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
-      <c r="K3" s="336"/>
-      <c r="L3" s="336"/>
-      <c r="M3" s="336"/>
-      <c r="N3" s="336"/>
-      <c r="O3" s="336"/>
-      <c r="P3" s="336"/>
-      <c r="Q3" s="337"/>
+      <c r="B3" s="335"/>
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="335"/>
+      <c r="L3" s="335"/>
+      <c r="M3" s="335"/>
+      <c r="N3" s="335"/>
+      <c r="O3" s="335"/>
+      <c r="P3" s="335"/>
+      <c r="Q3" s="336"/>
       <c r="S3" s="65"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6488,52 +6485,52 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" s="83" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="338" t="s">
+      <c r="A4" s="337" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="340" t="s">
+      <c r="B4" s="339" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="329" t="s">
+      <c r="C4" s="328" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="329" t="s">
+      <c r="D4" s="328" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="329" t="s">
+      <c r="E4" s="328" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="329" t="s">
+      <c r="F4" s="328" t="s">
         <v>167</v>
       </c>
-      <c r="G4" s="329" t="s">
+      <c r="G4" s="328" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="329" t="s">
+      <c r="H4" s="328" t="s">
         <v>176</v>
       </c>
-      <c r="I4" s="329" t="s">
+      <c r="I4" s="328" t="s">
         <v>172</v>
       </c>
-      <c r="J4" s="329" t="s">
+      <c r="J4" s="328" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="329" t="s">
+      <c r="K4" s="328" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="329" t="s">
+      <c r="L4" s="328" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="329" t="s">
+      <c r="M4" s="328" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="329" t="s">
+      <c r="N4" s="328" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="331" t="s">
+      <c r="O4" s="330" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="342" t="s">
+      <c r="P4" s="341" t="s">
         <v>82</v>
       </c>
       <c r="Q4" s="145" t="s">
@@ -6546,22 +6543,22 @@
       <c r="W4" s="85"/>
     </row>
     <row r="5" spans="1:24" s="83" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="339"/>
-      <c r="B5" s="341"/>
-      <c r="C5" s="330"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="330"/>
-      <c r="J5" s="330"/>
-      <c r="K5" s="330"/>
-      <c r="L5" s="330"/>
-      <c r="M5" s="330"/>
-      <c r="N5" s="330"/>
-      <c r="O5" s="332"/>
-      <c r="P5" s="343"/>
+      <c r="A5" s="338"/>
+      <c r="B5" s="340"/>
+      <c r="C5" s="329"/>
+      <c r="D5" s="329"/>
+      <c r="E5" s="329"/>
+      <c r="F5" s="329"/>
+      <c r="G5" s="329"/>
+      <c r="H5" s="329"/>
+      <c r="I5" s="329"/>
+      <c r="J5" s="329"/>
+      <c r="K5" s="329"/>
+      <c r="L5" s="329"/>
+      <c r="M5" s="329"/>
+      <c r="N5" s="329"/>
+      <c r="O5" s="331"/>
+      <c r="P5" s="342"/>
       <c r="Q5" s="146" t="s">
         <v>56</v>
       </c>
@@ -7186,7 +7183,7 @@
     </row>
     <row r="20" spans="1:23" s="14" customFormat="1">
       <c r="A20" s="90" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B20" s="98">
         <v>1200</v>
@@ -9687,11 +9684,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9706,6 +9698,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9719,8 +9716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView topLeftCell="A101" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9747,14 +9744,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="348" t="s">
+      <c r="A1" s="347" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="349"/>
-      <c r="C1" s="349"/>
-      <c r="D1" s="349"/>
-      <c r="E1" s="349"/>
-      <c r="F1" s="350"/>
+      <c r="B1" s="348"/>
+      <c r="C1" s="348"/>
+      <c r="D1" s="348"/>
+      <c r="E1" s="348"/>
+      <c r="F1" s="349"/>
       <c r="G1" s="76"/>
       <c r="H1" s="76"/>
       <c r="I1" s="162"/>
@@ -9848,14 +9845,14 @@
       <c r="CS1" s="157"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="351" t="s">
+      <c r="A2" s="350" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="352"/>
-      <c r="C2" s="352"/>
-      <c r="D2" s="352"/>
-      <c r="E2" s="352"/>
-      <c r="F2" s="353"/>
+      <c r="B2" s="351"/>
+      <c r="C2" s="351"/>
+      <c r="D2" s="351"/>
+      <c r="E2" s="351"/>
+      <c r="F2" s="352"/>
       <c r="G2" s="76"/>
       <c r="H2" s="76"/>
       <c r="I2" s="162"/>
@@ -9949,14 +9946,14 @@
       <c r="CS2" s="157"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="354" t="s">
+      <c r="A3" s="353" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="355"/>
-      <c r="C3" s="355"/>
-      <c r="D3" s="355"/>
-      <c r="E3" s="355"/>
-      <c r="F3" s="356"/>
+      <c r="B3" s="354"/>
+      <c r="C3" s="354"/>
+      <c r="D3" s="354"/>
+      <c r="E3" s="354"/>
+      <c r="F3" s="355"/>
       <c r="G3" s="76"/>
       <c r="H3" s="76"/>
       <c r="I3" s="162"/>
@@ -11732,7 +11729,7 @@
     </row>
     <row r="19" spans="1:97">
       <c r="A19" s="202" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B19" s="64">
         <v>497280</v>
@@ -13385,12 +13382,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="152"/>
-      <c r="B35" s="346" t="s">
+      <c r="B35" s="345" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="346"/>
-      <c r="D35" s="346"/>
-      <c r="E35" s="346"/>
+      <c r="C35" s="345"/>
+      <c r="D35" s="345"/>
+      <c r="E35" s="345"/>
       <c r="F35" s="153"/>
       <c r="G35" s="158"/>
       <c r="H35" s="158"/>
@@ -13709,8 +13706,8 @@
       <c r="A38" s="206" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="317" t="s">
-        <v>234</v>
+      <c r="B38" s="136" t="s">
+        <v>241</v>
       </c>
       <c r="C38" s="134" t="s">
         <v>153</v>
@@ -13719,7 +13716,7 @@
         <v>1180</v>
       </c>
       <c r="E38" s="195" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F38" s="151"/>
       <c r="G38" s="158"/>
@@ -14269,10 +14266,10 @@
         <v>226</v>
       </c>
       <c r="F43" s="153"/>
-      <c r="G43" s="347"/>
-      <c r="H43" s="347"/>
-      <c r="I43" s="347"/>
-      <c r="J43" s="347"/>
+      <c r="G43" s="346"/>
+      <c r="H43" s="346"/>
+      <c r="I43" s="346"/>
+      <c r="J43" s="346"/>
       <c r="K43" s="76"/>
       <c r="L43" s="162"/>
       <c r="M43" s="76"/>
@@ -14605,7 +14602,7 @@
         <v>389510</v>
       </c>
       <c r="E46" s="205" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F46" s="150"/>
       <c r="G46" s="157"/>
@@ -14971,7 +14968,7 @@
         <v>203640</v>
       </c>
       <c r="E49" s="197" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F49" s="151"/>
       <c r="G49" s="157"/>
@@ -15337,7 +15334,7 @@
         <v>1580</v>
       </c>
       <c r="E52" s="197" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F52" s="151"/>
       <c r="G52" s="157"/>
@@ -18442,7 +18439,7 @@
         <v>126</v>
       </c>
       <c r="B79" s="69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C79" s="134">
         <v>1758900692</v>
@@ -19283,7 +19280,7 @@
         <v>25540</v>
       </c>
       <c r="E86" s="198" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F86" s="153"/>
       <c r="G86" s="157"/>
@@ -19393,7 +19390,7 @@
     </row>
     <row r="87" spans="1:97">
       <c r="A87" s="251" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B87" s="69" t="s">
         <v>232</v>
@@ -19514,14 +19511,14 @@
         <v>126</v>
       </c>
       <c r="B88" s="136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C88" s="134"/>
       <c r="D88" s="234">
         <v>7520</v>
       </c>
       <c r="E88" s="198" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F88" s="151"/>
       <c r="G88" s="157"/>
@@ -22832,11 +22829,11 @@
       <c r="CS118" s="157"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="344" t="s">
+      <c r="A119" s="343" t="s">
         <v>42</v>
       </c>
-      <c r="B119" s="345"/>
-      <c r="C119" s="357"/>
+      <c r="B119" s="344"/>
+      <c r="C119" s="356"/>
       <c r="D119" s="237">
         <f>SUM(D37:D118)</f>
         <v>1915224</v>
@@ -23039,11 +23036,11 @@
       <c r="CS120" s="157"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="344" t="s">
+      <c r="A121" s="343" t="s">
         <v>43</v>
       </c>
-      <c r="B121" s="345"/>
-      <c r="C121" s="345"/>
+      <c r="B121" s="344"/>
+      <c r="C121" s="344"/>
       <c r="D121" s="237">
         <f>D119+M121</f>
         <v>1915224</v>
@@ -34278,8 +34275,8 @@
   </sheetPr>
   <dimension ref="A1:AC220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34298,35 +34295,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="358" t="s">
+      <c r="A1" s="357" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="359"/>
-      <c r="C1" s="359"/>
-      <c r="D1" s="359"/>
-      <c r="E1" s="360"/>
+      <c r="B1" s="358"/>
+      <c r="C1" s="358"/>
+      <c r="D1" s="358"/>
+      <c r="E1" s="359"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="367" t="s">
+      <c r="A2" s="366" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="368"/>
-      <c r="C2" s="368"/>
-      <c r="D2" s="368"/>
-      <c r="E2" s="369"/>
+      <c r="B2" s="367"/>
+      <c r="C2" s="367"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="368"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="23.25">
-      <c r="A3" s="361" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="362"/>
-      <c r="C3" s="362"/>
-      <c r="D3" s="362"/>
-      <c r="E3" s="363"/>
+      <c r="A3" s="360" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="361"/>
+      <c r="C3" s="361"/>
+      <c r="D3" s="361"/>
+      <c r="E3" s="362"/>
       <c r="F3" s="5"/>
       <c r="G3" s="11"/>
       <c r="H3" s="8"/>
@@ -34353,13 +34350,13 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:29" ht="26.25" customHeight="1">
-      <c r="A4" s="370" t="s">
+      <c r="A4" s="369" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="371"/>
-      <c r="C4" s="371"/>
-      <c r="D4" s="371"/>
-      <c r="E4" s="372"/>
+      <c r="B4" s="370"/>
+      <c r="C4" s="370"/>
+      <c r="D4" s="370"/>
+      <c r="E4" s="371"/>
       <c r="F4" s="5"/>
       <c r="G4" s="11"/>
       <c r="H4" s="8"/>
@@ -34386,13 +34383,13 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" ht="23.25">
-      <c r="A5" s="370" t="s">
+      <c r="A5" s="369" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="371"/>
-      <c r="C5" s="371"/>
-      <c r="D5" s="371"/>
-      <c r="E5" s="372"/>
+      <c r="B5" s="370"/>
+      <c r="C5" s="370"/>
+      <c r="D5" s="370"/>
+      <c r="E5" s="371"/>
       <c r="F5" s="5"/>
       <c r="G5" s="54"/>
       <c r="H5" s="6"/>
@@ -34433,8 +34430,8 @@
         <v>3743789.8442857098</v>
       </c>
       <c r="F6" s="41"/>
-      <c r="G6" s="319"/>
-      <c r="H6" s="321"/>
+      <c r="G6" s="318"/>
+      <c r="H6" s="320"/>
       <c r="I6" s="127"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -34472,9 +34469,9 @@
         <v>1304388</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="322"/>
-      <c r="H7" s="322"/>
-      <c r="I7" s="322"/>
+      <c r="G7" s="321"/>
+      <c r="H7" s="321"/>
+      <c r="I7" s="321"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -34507,9 +34504,9 @@
         <v>757058.34785714746</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="322"/>
-      <c r="H8" s="322"/>
-      <c r="I8" s="322"/>
+      <c r="G8" s="321"/>
+      <c r="H8" s="321"/>
+      <c r="I8" s="321"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -34539,8 +34536,8 @@
       <c r="E9" s="284"/>
       <c r="F9" s="8"/>
       <c r="G9" s="265"/>
-      <c r="H9" s="321"/>
-      <c r="I9" s="320"/>
+      <c r="H9" s="320"/>
+      <c r="I9" s="319"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -34575,7 +34572,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="127"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="320"/>
+      <c r="I10" s="319"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -34613,8 +34610,8 @@
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="266"/>
-      <c r="H11" s="323"/>
-      <c r="I11" s="324"/>
+      <c r="H11" s="322"/>
+      <c r="I11" s="323"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -34862,13 +34859,13 @@
       <c r="AC17" s="8"/>
     </row>
     <row r="18" spans="1:29" ht="22.5">
-      <c r="A18" s="364" t="s">
+      <c r="A18" s="363" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="365"/>
-      <c r="C18" s="365"/>
-      <c r="D18" s="365"/>
-      <c r="E18" s="366"/>
+      <c r="B18" s="364"/>
+      <c r="C18" s="364"/>
+      <c r="D18" s="364"/>
+      <c r="E18" s="365"/>
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="17"/>
@@ -35096,7 +35093,7 @@
       </c>
       <c r="C24" s="140"/>
       <c r="D24" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E24" s="60">
         <v>21350</v>
@@ -35126,7 +35123,7 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25" spans="1:29" ht="21.75">
-      <c r="A25" s="318" t="s">
+      <c r="A25" s="317" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="299">
